--- a/excel/finished/焦化45/CK45-CDQ操作运行报表A（日）.xlsx
+++ b/excel/finished/焦化45/CK45-CDQ操作运行报表A（日）.xlsx
@@ -110,7 +110,7 @@
         <rFont val="宋体"/>
         <sz val="22"/>
       </rPr>
-      <t xml:space="preserve">  t/h（1#CQD）干  熄  焦  操  作  运  行  记  录 (A)</t>
+      <t xml:space="preserve">  t/h（1#CDQ）干  熄  焦  操  作  运  行  记  录 (A)</t>
     </r>
   </si>
   <si>
